--- a/Reports/April_2021/Week_End_4_2_2021/output.xlsx
+++ b/Reports/April_2021/Week_End_4_2_2021/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -59,21 +59,525 @@
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
-    <t xml:space="preserve">code</t>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPIRE ELECTRICAL SUPPLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELE = Electrical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO96601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAVANT SYSTEMS LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRS CUSTOM INTEGRATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED (3) USAI-3DL-FC1RX18A-00 not producing all colors. (2) USAI-3DLD1IC-FC1RX18A-SFLMBL-00 (engine light piece only) not working. The power driver unit that will not produce red was swapped with a known working driver with no change. Customer cannot provide photos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAVANT RECESS 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USAI-3DL-LED-FC1XX-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA ILLUM WARRANTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED blue spectrum doesn’t work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEVELED 2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP-367-0700-23X1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARDWARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W2-095C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO101368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FISHER MARANTZ STONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JT ROSELLE LIGHTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILLENNIUM PARTNERS /Q49059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED FJ downlight – lighting is orange ( not as bright as the others )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEVELED MINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEM-319-00-30KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO106335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CITY ELECTRIC SUPPLY - CHARLOTTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED We have some C1 RGBW fixtures in which the wire that controls fixture color is not working.  The wires are ringing out however they are not ringing through the connector. We have a failed driver as well on one unit.  
+When testing the wiring we can read through up until the quick connect.  When trying to read through the quick connect ends we lose continuity.  We have tested fixtures with a known working wire and all colors will appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEVELED 2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEM-273-00-RGB30KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W2-106A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO112098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAYER ELECTRIC SUPPLY-ATLANTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO112098  / INV145414  --  JOB CHANGES – CAN NOT USE
+REPL SOTBD  / INV#TBD  -- CREDIT UPON RECEIPT IN BRAND NEW CONDITION   
+50% RESTOCKING
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSLD4-9024-C3-35KS-25-NC-277V-DIML2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNN = Changes Not Needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO80157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGHT BRIGADE ARCHTECTURAL LIGHTING (OOT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPALA INDUSTRIES, INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAYMAN ISLAND CONFRENCE CENTER/QUOTE 36987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED 11 of these downlights have now begun to change color. They are yellowing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NANO/MINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEM-203-00-40KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO72966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAYSHORE SUPPLY - CONCORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 NARANJA WAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED fixture wont change from green.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEM-240-00-27KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO111153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORDER STATES ELEC-FAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED DRIVER OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEVELED MINI X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP-323-0500-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED flickering,LED has shifted color </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEM-203-00-30KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEVELED 2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEM-230-16-30KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP-065-0500-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICE PARTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP-065-0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP-064-0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP-088-0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO111419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONNEXION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED driver out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP-373-0900-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO112573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WELTMANN LIGHTING LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED ORDER ENTRY ERROR//  
+REWORK SO114651  / INVTBD  -- CREDIT UPON RECEIPT  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEVELED MINI COMPLETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3RDF-09X3-30KH-65-FT-UNV-D22-HSG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OE = Order Entry Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO104738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINI BASIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP-464-0350-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO103690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CED-ORLANDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED Customer reported that the light worked then stopped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEM-336-00-RGB30KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO73678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESIGN BUILD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LESCO, INC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCOMMODATION - HARRIS RESIDENCES Q36009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED trim stopped working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDF04-13H1-30KH-50-WH-WH-TRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO104237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED customer that has an infinite color USAI recessed light fixture that appears to have a bad driver. I can discover the driver in OLA and cannot flash the light. I have tried this driver in 2 other USAI light fixtures and have the exact same issue. This driver was recently reflashed by USAI to change it from 16 bit to 8 bit and was working fine but just recently this issue came up. I can ship this back to USAI and they can fix it if possible because I know they are using different drivers now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP-366-0700-23X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO104012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGHTING MANAGEMENT INC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  REPORTED DEFECTIVE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED  LEDs to not work properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEVELED 2.1 PENDANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP-121-1300-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO112488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVCO ELECTRICAL SUPPLY INC.-SOUTHHAMPTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED COLOR CHANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEM-240-00-27KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO53693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOTHAM LIGHTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANK @ GOTHAM ACCOMODATION/Q30276 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED Sent incorrect color temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEM-203-00-30KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEM-240-00-30KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO104091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CED-STERLING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED BRIGHT WHITE LIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEM-326-00-35KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORTH COAST ELECTRIC - SALEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED lost by UPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP-155-0500-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO100654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REYNOLDS CO-HOUSTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JPMC LEGECY WEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED DIFFERENT COLOR TEMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEM-326-00-30KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO108644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO108644 / INV142761 --  ORDERING ERROR – CAN NOT USE
+REPLACEMENTS ORDERED ON SO114551  / INV#TBD 
+CREDIT UPON RECEIPT IN BRAND NEW CONDITION, LESS  0% RESTOCKING
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3RAF-25-BF-WH-WH-TRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO72742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACILITY SOLUTIONS GROUP - NEW YORK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAMONT GROUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED replacement LED modules for this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEM-240-00-30KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO107944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOEB ELECTRIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED NOT LIGHTING UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINI PRIMARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP-420-0350-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTED wildly varying color temps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEVELED 2.0 WGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEM-198-32-3022KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA15341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEVELED BASIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEM-213-00-27KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP-060-0700-4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd hh:mm:ss"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,8 +600,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,6 +946,1886 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2"/>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" t="s">
+        <v>78</v>
+      </c>
+      <c r="O17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" t="s">
+        <v>90</v>
+      </c>
+      <c r="O20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" t="s">
+        <v>96</v>
+      </c>
+      <c r="O21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" t="s">
+        <v>101</v>
+      </c>
+      <c r="O22" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
+        <v>105</v>
+      </c>
+      <c r="L23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s">
+        <v>113</v>
+      </c>
+      <c r="L24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" t="s">
+        <v>114</v>
+      </c>
+      <c r="O24" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" t="s">
+        <v>118</v>
+      </c>
+      <c r="O25" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" t="s">
+        <v>122</v>
+      </c>
+      <c r="O26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" t="s">
+        <v>122</v>
+      </c>
+      <c r="O27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
+        <v>125</v>
+      </c>
+      <c r="L28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" t="s">
+        <v>126</v>
+      </c>
+      <c r="O28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" t="s">
+        <v>130</v>
+      </c>
+      <c r="L29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" t="s">
+        <v>131</v>
+      </c>
+      <c r="O29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" t="n">
+        <v>14</v>
+      </c>
+      <c r="J30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" t="s">
+        <v>136</v>
+      </c>
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" t="s">
+        <v>137</v>
+      </c>
+      <c r="O30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="n">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" t="s">
+        <v>138</v>
+      </c>
+      <c r="L31" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31" t="s">
+        <v>137</v>
+      </c>
+      <c r="O31" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" t="s">
+        <v>142</v>
+      </c>
+      <c r="L32" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" t="s">
+        <v>143</v>
+      </c>
+      <c r="O32" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" t="s">
+        <v>146</v>
+      </c>
+      <c r="O33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" t="s">
+        <v>147</v>
+      </c>
+      <c r="L34" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" t="s">
+        <v>146</v>
+      </c>
+      <c r="O34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>44284</v>
+      </c>
+      <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" t="s">
+        <v>153</v>
+      </c>
+      <c r="L35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" t="s">
+        <v>154</v>
+      </c>
+      <c r="O35" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>44284</v>
+      </c>
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36" t="s">
+        <v>156</v>
+      </c>
+      <c r="H36" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" t="n">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" t="s">
+        <v>157</v>
+      </c>
+      <c r="L36" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" t="s">
+        <v>158</v>
+      </c>
+      <c r="O36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>44284</v>
+      </c>
+      <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" t="s">
+        <v>163</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" t="s">
+        <v>164</v>
+      </c>
+      <c r="L37" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" t="s">
+        <v>16</v>
+      </c>
+      <c r="N37" t="s">
+        <v>165</v>
+      </c>
+      <c r="O37" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>44284</v>
+      </c>
+      <c r="B38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38" t="s">
+        <v>168</v>
+      </c>
+      <c r="H38" t="s">
+        <v>169</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" t="s">
+        <v>170</v>
+      </c>
+      <c r="L38" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38" t="s">
+        <v>171</v>
+      </c>
+      <c r="O38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>44284</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39" t="s">
+        <v>172</v>
+      </c>
+      <c r="H39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5</v>
+      </c>
+      <c r="J39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" t="s">
+        <v>174</v>
+      </c>
+      <c r="L39" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" t="s">
+        <v>16</v>
+      </c>
+      <c r="N39" t="s">
+        <v>175</v>
+      </c>
+      <c r="O39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>44284</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40" t="s">
+        <v>172</v>
+      </c>
+      <c r="H40" t="s">
+        <v>173</v>
+      </c>
+      <c r="I40" t="n">
+        <v>10</v>
+      </c>
+      <c r="J40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" t="s">
+        <v>174</v>
+      </c>
+      <c r="L40" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" t="s">
+        <v>175</v>
+      </c>
+      <c r="O40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>44284</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41" t="s">
+        <v>172</v>
+      </c>
+      <c r="H41" t="s">
+        <v>176</v>
+      </c>
+      <c r="I41" t="n">
+        <v>10</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" t="s">
+        <v>177</v>
+      </c>
+      <c r="L41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" t="s">
+        <v>175</v>
+      </c>
+      <c r="O41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>44284</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42" t="s">
+        <v>172</v>
+      </c>
+      <c r="H42" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" t="s">
+        <v>178</v>
+      </c>
+      <c r="L42" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" t="s">
+        <v>16</v>
+      </c>
+      <c r="N42" t="s">
+        <v>175</v>
+      </c>
+      <c r="O42" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
